--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H2">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I2">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J2">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>1065.424940155801</v>
+        <v>1192.064062210446</v>
       </c>
       <c r="R2">
-        <v>9588.824461402208</v>
+        <v>10728.57655989402</v>
       </c>
       <c r="S2">
-        <v>0.006425970561063621</v>
+        <v>0.007978205197871449</v>
       </c>
       <c r="T2">
-        <v>0.006425970561063619</v>
+        <v>0.007978205197871449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H3">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I3">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J3">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>1122.997353952232</v>
+        <v>1289.792397152432</v>
       </c>
       <c r="R3">
-        <v>10106.97618557009</v>
+        <v>11608.13157437189</v>
       </c>
       <c r="S3">
-        <v>0.00677321101155574</v>
+        <v>0.008632278023762768</v>
       </c>
       <c r="T3">
-        <v>0.006773211011555738</v>
+        <v>0.008632278023762768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H4">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I4">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J4">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>725.5563517299582</v>
+        <v>556.0125921268284</v>
       </c>
       <c r="R4">
-        <v>6530.007165569624</v>
+        <v>5004.113329141456</v>
       </c>
       <c r="S4">
-        <v>0.004376097818704744</v>
+        <v>0.003721261879468617</v>
       </c>
       <c r="T4">
-        <v>0.004376097818704744</v>
+        <v>0.003721261879468618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H5">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I5">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J5">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>388.7466171159022</v>
+        <v>436.6213588990915</v>
       </c>
       <c r="R5">
-        <v>3498.719554043119</v>
+        <v>3929.592230091824</v>
       </c>
       <c r="S5">
-        <v>0.002344674151268278</v>
+        <v>0.002922204355872496</v>
       </c>
       <c r="T5">
-        <v>0.002344674151268278</v>
+        <v>0.002922204355872496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H6">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I6">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J6">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>565.9158242746995</v>
+        <v>521.3196724062293</v>
       </c>
       <c r="R6">
-        <v>5093.242418472296</v>
+        <v>4691.877051656064</v>
       </c>
       <c r="S6">
-        <v>0.003413246949426101</v>
+        <v>0.003489070304184507</v>
       </c>
       <c r="T6">
-        <v>0.003413246949426099</v>
+        <v>0.003489070304184507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>808.641815</v>
       </c>
       <c r="I7">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J7">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>44128.11898573334</v>
+        <v>42988.37931867614</v>
       </c>
       <c r="R7">
-        <v>397153.0708716001</v>
+        <v>386895.4138680852</v>
       </c>
       <c r="S7">
-        <v>0.2661529525261238</v>
+        <v>0.2877111408696958</v>
       </c>
       <c r="T7">
-        <v>0.2661529525261237</v>
+        <v>0.2877111408696957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>808.641815</v>
       </c>
       <c r="I8">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J8">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>46512.67206925068</v>
@@ -948,10 +948,10 @@
         <v>418614.0486232561</v>
       </c>
       <c r="S8">
-        <v>0.2805350711892509</v>
+        <v>0.3112984057095703</v>
       </c>
       <c r="T8">
-        <v>0.2805350711892509</v>
+        <v>0.3112984057095702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>808.641815</v>
       </c>
       <c r="I9">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J9">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>30051.33051917497</v>
+        <v>20051.00310799303</v>
       </c>
       <c r="R9">
-        <v>270461.9746725748</v>
+        <v>180459.0279719374</v>
       </c>
       <c r="S9">
-        <v>0.1812506521658599</v>
+        <v>0.1341966613120541</v>
       </c>
       <c r="T9">
-        <v>0.1812506521658598</v>
+        <v>0.1341966613120541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>808.641815</v>
       </c>
       <c r="I10">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J10">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>16101.23466124537</v>
+        <v>15745.49991901056</v>
       </c>
       <c r="R10">
-        <v>144911.1119512083</v>
+        <v>141709.499271095</v>
       </c>
       <c r="S10">
-        <v>0.09711248163085963</v>
+        <v>0.1053809382223935</v>
       </c>
       <c r="T10">
-        <v>0.0971124816308596</v>
+        <v>0.1053809382223935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>808.641815</v>
       </c>
       <c r="I11">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J11">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>23439.2868875882</v>
+        <v>18799.90223187401</v>
       </c>
       <c r="R11">
-        <v>210953.5819882938</v>
+        <v>169199.1200868661</v>
       </c>
       <c r="S11">
-        <v>0.1413709796299124</v>
+        <v>0.1258233365643845</v>
       </c>
       <c r="T11">
-        <v>0.1413709796299123</v>
+        <v>0.1258233365643845</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H12">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I12">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J12">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>462.0264915998653</v>
+        <v>9.449033383512889</v>
       </c>
       <c r="R12">
-        <v>4158.238424398788</v>
+        <v>85.041300451616</v>
       </c>
       <c r="S12">
-        <v>0.002786652087399118</v>
+        <v>6.324016438798968E-05</v>
       </c>
       <c r="T12">
-        <v>0.002786652087399117</v>
+        <v>6.324016438798967E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H13">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I13">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J13">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>486.993037206927</v>
+        <v>10.223688310757</v>
       </c>
       <c r="R13">
-        <v>4382.937334862343</v>
+        <v>92.01319479681298</v>
       </c>
       <c r="S13">
-        <v>0.00293723452735868</v>
+        <v>6.842474813899668E-05</v>
       </c>
       <c r="T13">
-        <v>0.002937234527358679</v>
+        <v>6.842474813899668E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H14">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I14">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J14">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>314.6408939880544</v>
+        <v>4.407297989436778</v>
       </c>
       <c r="R14">
-        <v>2831.768045892489</v>
+        <v>39.665681904931</v>
       </c>
       <c r="S14">
-        <v>0.001897715217534058</v>
+        <v>2.949701181553223E-05</v>
       </c>
       <c r="T14">
-        <v>0.001897715217534058</v>
+        <v>2.949701181553223E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H15">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I15">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J15">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>168.5817825900633</v>
+        <v>3.460929598483222</v>
       </c>
       <c r="R15">
-        <v>1517.23604331057</v>
+        <v>31.148366386349</v>
       </c>
       <c r="S15">
-        <v>0.001016778875006398</v>
+        <v>2.316319012325982E-05</v>
       </c>
       <c r="T15">
-        <v>0.001016778875006398</v>
+        <v>2.316319012325982E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H16">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I16">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J16">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>245.4120351192923</v>
+        <v>4.132300556829334</v>
       </c>
       <c r="R16">
-        <v>2208.708316073631</v>
+        <v>37.190705011464</v>
       </c>
       <c r="S16">
-        <v>0.001480170449902057</v>
+        <v>2.765651849325079E-05</v>
       </c>
       <c r="T16">
-        <v>0.001480170449902057</v>
+        <v>2.76565184932508E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H17">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I17">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J17">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>5.758405372114667</v>
+        <v>370.4735785677156</v>
       </c>
       <c r="R17">
-        <v>51.825648349032</v>
+        <v>3334.26220710944</v>
       </c>
       <c r="S17">
-        <v>3.473106551688975E-05</v>
+        <v>0.00247949277551594</v>
       </c>
       <c r="T17">
-        <v>3.473106551688973E-05</v>
+        <v>0.002479492775515939</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H18">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I18">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J18">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>6.069572573478</v>
+        <v>400.84591099613</v>
       </c>
       <c r="R18">
-        <v>54.626153161302</v>
+        <v>3607.61319896517</v>
       </c>
       <c r="S18">
-        <v>3.66078296136988E-05</v>
+        <v>0.002682767673345279</v>
       </c>
       <c r="T18">
-        <v>3.660782961369878E-05</v>
+        <v>0.002682767673345278</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H19">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I19">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J19">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>3.921484692260667</v>
+        <v>172.7994167964211</v>
       </c>
       <c r="R19">
-        <v>35.29336223034601</v>
+        <v>1555.19475116779</v>
       </c>
       <c r="S19">
-        <v>2.365191975367471E-05</v>
+        <v>0.001156505970591855</v>
       </c>
       <c r="T19">
-        <v>2.365191975367471E-05</v>
+        <v>0.001156505970591855</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H20">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I20">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J20">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>2.101096495886666</v>
+        <v>135.6946177963789</v>
       </c>
       <c r="R20">
-        <v>18.90986846298</v>
+        <v>1221.25156016741</v>
       </c>
       <c r="S20">
-        <v>1.267248749268744E-05</v>
+        <v>0.0009081722529398159</v>
       </c>
       <c r="T20">
-        <v>1.267248749268744E-05</v>
+        <v>0.0009081722529398159</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.322956666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.96887</v>
+      </c>
+      <c r="I21">
+        <v>0.008311283383757393</v>
+      </c>
+      <c r="J21">
+        <v>0.008311283383757391</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>69.746216</v>
+      </c>
+      <c r="N21">
+        <v>209.238648</v>
+      </c>
+      <c r="O21">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="P21">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="Q21">
+        <v>162.0174374319733</v>
+      </c>
+      <c r="R21">
+        <v>1458.15693688776</v>
+      </c>
+      <c r="S21">
+        <v>0.001084344711364502</v>
+      </c>
+      <c r="T21">
+        <v>0.001084344711364502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H22">
+        <v>0.271025</v>
+      </c>
+      <c r="I22">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J22">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>159.4836373333333</v>
+      </c>
+      <c r="N22">
+        <v>478.450912</v>
+      </c>
+      <c r="O22">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="P22">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="Q22">
+        <v>14.40801760275555</v>
+      </c>
+      <c r="R22">
+        <v>129.6721584248</v>
+      </c>
+      <c r="S22">
+        <v>9.642948275462269E-05</v>
+      </c>
+      <c r="T22">
+        <v>9.642948275462269E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H23">
+        <v>0.271025</v>
+      </c>
+      <c r="I23">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J23">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="P23">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="Q23">
+        <v>15.589222216475</v>
+      </c>
+      <c r="R23">
+        <v>140.302999948275</v>
+      </c>
+      <c r="S23">
+        <v>0.0001043350082105713</v>
+      </c>
+      <c r="T23">
+        <v>0.0001043350082105713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H24">
+        <v>0.271025</v>
+      </c>
+      <c r="I24">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J24">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.38770566666666</v>
+      </c>
+      <c r="N24">
+        <v>223.163117</v>
+      </c>
+      <c r="O24">
+        <v>0.1391489036280481</v>
+      </c>
+      <c r="P24">
+        <v>0.1391489036280482</v>
+      </c>
+      <c r="Q24">
+        <v>6.72030930943611</v>
+      </c>
+      <c r="R24">
+        <v>60.48278378492499</v>
+      </c>
+      <c r="S24">
+        <v>4.497745411805034E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.497745411805035E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.035174</v>
-      </c>
-      <c r="H21">
-        <v>0.105522</v>
-      </c>
-      <c r="I21">
-        <v>0.0001261112087748008</v>
-      </c>
-      <c r="J21">
-        <v>0.0001261112087748008</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>86.95798233333333</v>
-      </c>
-      <c r="N21">
-        <v>260.873947</v>
-      </c>
-      <c r="O21">
-        <v>0.1462828449356384</v>
-      </c>
-      <c r="P21">
-        <v>0.1462828449356383</v>
-      </c>
-      <c r="Q21">
-        <v>3.058660070592667</v>
-      </c>
-      <c r="R21">
-        <v>27.527940635334</v>
-      </c>
-      <c r="S21">
-        <v>1.84479063978501E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.844790639785009E-05</v>
+      <c r="G25">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H25">
+        <v>0.271025</v>
+      </c>
+      <c r="I25">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J25">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.41461433333333</v>
+      </c>
+      <c r="N25">
+        <v>175.243843</v>
+      </c>
+      <c r="O25">
+        <v>0.1092697975759847</v>
+      </c>
+      <c r="P25">
+        <v>0.1092697975759848</v>
+      </c>
+      <c r="Q25">
+        <v>5.277273616563888</v>
+      </c>
+      <c r="R25">
+        <v>47.49546254907499</v>
+      </c>
+      <c r="S25">
+        <v>3.531955465563478E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.531955465563478E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H26">
+        <v>0.271025</v>
+      </c>
+      <c r="I26">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J26">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>69.746216</v>
+      </c>
+      <c r="N26">
+        <v>209.238648</v>
+      </c>
+      <c r="O26">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="P26">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="Q26">
+        <v>6.300989397133333</v>
+      </c>
+      <c r="R26">
+        <v>56.7089045742</v>
+      </c>
+      <c r="S26">
+        <v>4.217104428660086E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.217104428660086E-05</v>
       </c>
     </row>
   </sheetData>
